--- a/kyivbot/resources/food_stores/atb.xlsx
+++ b/kyivbot/resources/food_stores/atb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\task3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\food_stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266E200-9876-4091-981F-5E85C3DD00D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2A9BB-C99F-412A-B9D7-ACEF1A18BBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>АТБ Київ Кільцева дорога, 2 з</t>
   </si>
@@ -36,9 +36,6 @@
     <t>АТБ Київ Харьківське шосе, 201-203</t>
   </si>
   <si>
-    <t>АТБ Київ Чоколовський бульвар, 39</t>
-  </si>
-  <si>
     <t>АТБ Київ бул. Гавела Вацлава, 79</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>АТБ Київ бул. Русанівський, 11</t>
   </si>
   <si>
-    <t>АТБ Київ бул. Чоколівский, 16А</t>
-  </si>
-  <si>
     <t>АТБ Київ бул. Чоколівський, 23</t>
   </si>
   <si>
@@ -463,6 +457,15 @@
   </si>
   <si>
     <t>АТБ Київ пров. Квітневий, 9</t>
+  </si>
+  <si>
+    <t>АТБ</t>
+  </si>
+  <si>
+    <t>АТБ Київ бул. Чоколівський, 16А</t>
+  </si>
+  <si>
+    <t>АТБ Київ Чоколівський бульвар, 39</t>
   </si>
 </sst>
 </file>
@@ -478,9 +481,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,18 +506,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,897 +800,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/kilceva-doroga-2-z" xr:uid="{49B65ECA-ACFF-447F-BC03-BAD58833586D}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/harkivske-sose-151" xr:uid="{018EC660-2F02-462C-A791-860811FC4938}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/harkivske-sose-201-203" xr:uid="{5E9489D2-E165-4968-A392-7B7F5F3F1C5C}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/cokolovskij-bulvar-39" xr:uid="{4DEA93BD-26A6-4A2E-980F-A967DECA6B96}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-gavela-vaclava-79" xr:uid="{83F281A9-1FE8-45CA-A5CA-73280826EA79}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-kolcova-1-a" xr:uid="{539E6A9B-A348-4F9E-9062-7DD6ABFCCDC9}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-kolcova-14-prim-102" xr:uid="{AE0B98D9-E770-4C3C-870F-5615B84780DD}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-perova-8" xr:uid="{E81BE8C0-397F-4BEC-9189-D1F23AA6B2B2}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-praci-6-14" xr:uid="{27660159-5235-4ADB-AFA4-BCFABF8AB9EA}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-rusanivskij-11" xr:uid="{ADB506A8-42AA-43E7-879B-160D381533D9}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-cokolivskij-16a" xr:uid="{857DA1D3-3850-4663-8770-28E80E959F7E}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/bul-cokolivskij-23" xr:uid="{51EF698C-5207-4269-AADC-315DED140497}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-evgenia-harcenka-39" xr:uid="{E9B8132E-1EEF-41A3-92DB-A9B745A586CA}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-azerbajdzanska-8-b" xr:uid="{ACDA41A2-DDBC-4397-A932-6DD18C1AA620}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akademika-dobrohotova-16" xr:uid="{C0609227-8958-4BEB-B7DC-1A9DC75788D2}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akademika-zabolotnogo-20-a" xr:uid="{7A1E1245-40D3-42FA-96FF-452E0A7C58D5}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akademika-kurcatova-23" xr:uid="{FA96E2AB-9331-4ABA-A42A-2A75617F6DAA}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akademika-kurcatova-8-a" xr:uid="{DB4382A7-7588-4893-8F41-DF580B081A76}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akademika-tupoleva-15" xr:uid="{4E46BE8D-C847-4C19-A5EA-695ACE5ACE21}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-alma-atinska-2-1" xr:uid="{380B427D-4CDE-4A39-8E71-717F103B7A70}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-anni-ahmatovoi-15-27" xr:uid="{78EEB33D-EF13-49B6-80B6-98AEFC6D8061}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-anni-ahmatovoi-9-18-v" xr:uid="{39E54EC8-9E0B-4995-A395-DB80D5D2B910}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-arhitektora-nikolaeva-7" xr:uid="{464D610D-D357-4EC3-AFC8-108A81778070}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-baggovutivska-3-15" xr:uid="{B174B2C3-7EEB-4D5E-A06D-89767BCA6B1A}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-bogatirska-2" xr:uid="{6F3EBE8C-1744-4A6E-82BA-5435A105BC9C}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-bogdana-gavrilisina-6" xr:uid="{B30AD35B-F42A-4A3B-959F-2C0ED7B5500F}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-borispilska-26-k" xr:uid="{98E159A1-9F9D-4BFD-99B6-9C7D225523CA}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-borispilska-9-primisenna-1-2" xr:uid="{65F3344A-B765-46EE-AF66-081F00B6FE5B}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-borsagivska-154" xr:uid="{D81DF108-A1B3-4170-ADFB-B3DBCCE8E4D2}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-budisanska-7" xr:uid="{0934DC8A-32F1-4DC8-B35B-757F6BEFE3F7}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-burmistenka-11" xr:uid="{AA1630EC-D254-4751-8711-A227E49FEA8A}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-v-porika-13" xr:uid="{85B4CA86-EFEA-421C-8DEE-7C511271D549}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-verhovinna-7" xr:uid="{167E1B02-93AD-41F0-8611-EA24219F9F2D}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-visgorodska-22" xr:uid="{1E43FBBB-96AE-4EED-92B9-13B7A53E4683}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-visgorodska-44" xr:uid="{4A3C329C-F2C1-434D-8FAA-030229778824}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-vaceslava-cornovala-12" xr:uid="{B54DF493-C529-4593-B0FF-6D6277F26129}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-g-gongadze-20" xr:uid="{B764140B-48FF-41CD-AB07-8B337E86E95D}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-generala-potapova-2" xr:uid="{A2D4F92E-ED9C-4C46-9CB1-83D17075B990}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-geroiv-dnipra-40" xr:uid="{FB4960C7-D650-443B-8794-0E2387118AEB}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-geroiv-sevastopola-10" xr:uid="{6ECE5152-E524-4B7E-BDB3-9E3313DE3B08}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-grigorovica-barskogo-1" xr:uid="{47850640-E3A7-4F64-B729-6AA9315B3E89}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-dekabristiv-2" xr:uid="{641907E5-FDAA-43ED-9201-97D78794EE2E}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-derevlanska-8-prim-109" xr:uid="{8A27BB7D-46BC-4E51-9D63-AB53FC031AB5}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-dneprovska-naberezna-7" xr:uid="{0E247D0F-697C-49F0-BF97-AE435784FA31}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-dniprovska-naberezna-25a" xr:uid="{3AF7E63C-E8DC-430A-8A27-C631DC352450}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-dovzenka-oleksandra-1v" xr:uid="{674B9EC2-43A9-49C1-BB8A-A9D574D6C4D8}"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-dragomanova-1-n" xr:uid="{BE94678A-D436-43C9-A377-D670877EB45B}"/>
-    <hyperlink ref="A48" r:id="rId48" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-entuziastiv-7" xr:uid="{3E8AC602-355C-4251-8C18-8FD95531DEDD}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-ernsta-4" xr:uid="{025CABF3-4CBB-438A-903B-0297423B9BC7}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-zdolbunivska-7" xr:uid="{AF4C5DDE-549B-49C8-9434-F8B3AD672287}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kastanova-7" xr:uid="{8AE3A418-A857-4A73-AA0E-A984DA5D4627}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kirilivska-115-2" xr:uid="{27F0E933-4074-42AD-AE84-FA6762648DEC}"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kirilivska-127" xr:uid="{8C8BFB89-9E35-4F5A-82A8-59B61925FCC4}"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-klavdiivska-27-a" xr:uid="{90FFA6BB-9C94-4DF8-A6C8-6E1094540621}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kopernika-14" xr:uid="{769E6FB3-890B-4414-AC9A-E5F3EBD0B60F}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kostantinivska-71" xr:uid="{22238119-E19B-4804-B693-E67DF4547859}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-kurnatovskogo-11" xr:uid="{7C1387A0-6D2E-43C5-9233-8D817A335EC3}"/>
-    <hyperlink ref="A58" r:id="rId58" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-latosinskogo-kompozitora-14" xr:uid="{B553B3FC-E692-4759-B7C3-BD3D7A511CB6}"/>
-    <hyperlink ref="A59" r:id="rId59" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-m-vasilenka-6" xr:uid="{88A318E2-14B8-4AC9-AE59-F946788F16B7}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-m-zakrevskogo-21" xr:uid="{02C034F9-5940-40ED-AC76-9564E5FB2C13}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-m-zakrevskogo-29" xr:uid="{8ED301EE-C5A2-4B3C-AD2B-9B302B1203D1}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-maksima-krivonosa-29" xr:uid="{13B96A70-0A52-49ED-B9D9-DDFF93766E69}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mala-kilceva-6" xr:uid="{FB1538A9-1E97-4018-8132-46312F45D8BC}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-malinovskogo-5" xr:uid="{1F06C605-304A-4D55-A3D4-716115A62596}"/>
-    <hyperlink ref="A65" r:id="rId65" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-maliska-andria-25-1" xr:uid="{E9B3CF54-A90A-4AF5-A6D6-DB871B5763E0}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-marini-cvetaevoi-vul-onore-de-balzaka-18-78" xr:uid="{E10B229C-3B9D-40EC-9E63-4FE90070641E}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-marsala-grecka-22" xr:uid="{EC41FC9A-654D-4D44-9DEA-C6733E00D296}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-marsala-timosenka-29-b" xr:uid="{C1B6CC52-CC6C-46D9-ABFB-D8061E54F277}"/>
-    <hyperlink ref="A69" r:id="rId69" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-masinobudivna-27" xr:uid="{9723FC85-AA3C-4348-B8CA-C174FB597934}"/>
-    <hyperlink ref="A70" r:id="rId70" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mezigirska-55-20" xr:uid="{E72A5CCF-0AB3-44BF-BDCE-2E728ACB6644}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mikoli-golego-7-v" xr:uid="{AC337AFA-9B70-4AF0-8ADC-6BA1D5EBA5B6}"/>
-    <hyperlink ref="A72" r:id="rId72" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mikoli-krasnova-19" xr:uid="{4373599A-E8B3-4980-8661-245210BCCB58}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mikoli-lavruhina-9" xr:uid="{C828431E-926C-4015-A608-A44CCD040C15}"/>
-    <hyperlink ref="A74" r:id="rId74" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mikilsko-slobidska-2g" xr:uid="{D24A70EB-206F-4DEF-A17C-4B4DCC463FC5}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-miloslavska-6" xr:uid="{BD461DEE-D546-4E6A-B6E0-CA3148554336}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mitropolita-andrea-septickogo-24-a" xr:uid="{C19900A6-6516-43EC-85F2-943C5F1317E3}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-mitropolita-vasilia-lipkivskogo-25" xr:uid="{778B8320-244B-41C0-B73C-42C6BC03156A}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-misugi-oleksandra-6" xr:uid="{D3AACF9C-0DA4-4569-86AE-1FDA19107CB5}"/>
-    <hyperlink ref="A79" r:id="rId79" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-o-saburova-20a" xr:uid="{6847F914-6EC1-48E3-ABC4-DADD98612BFD}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-olzica-2-33" xr:uid="{357F9932-31DB-44EA-B997-9D2DC8CC3FCB}"/>
-    <hyperlink ref="A81" r:id="rId81" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-onore-de-balzaka-6" xr:uid="{2280EE33-ED4E-43DB-8667-B5B30F3E0AB8}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-onore-de-balzaka-62" xr:uid="{F93FF28C-F583-4465-AB5F-52619D64EEDA}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-pavla-ticini-15" xr:uid="{19BCDEAC-B031-4269-84A6-A9BA9522E50C}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-polkovnika-potehina-2" xr:uid="{15CCA4F4-6474-4E1A-A9C3-345261304BD5}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-polovecka-14" xr:uid="{1FE9656A-8E22-4018-A4FA-77F16FD5D7AA}"/>
-    <hyperlink ref="A86" r:id="rId86" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-polarna-15" xr:uid="{61241A20-F615-4847-8D86-A76153616137}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-politehnicna-31" xr:uid="{A5224B67-2CD3-4FC8-B1AC-2404529C0BE1}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-preobrazenska-27" xr:uid="{30A42E62-2E9B-4740-89AB-B5C15C98B297}"/>
-    <hyperlink ref="A89" r:id="rId89" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-priozerna-2" xr:uid="{7B133DBD-73D4-4821-B91B-3458CA7F7E8B}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-prip-atska-11a" xr:uid="{421CBBE1-8908-4D3B-A773-AD4FC09589FA}"/>
-    <hyperlink ref="A91" r:id="rId91" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-priricna-11" xr:uid="{0C482C45-A821-40A8-B3F7-CCD01F63742D}"/>
-    <hyperlink ref="A92" r:id="rId92" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-radunska-30-prim-276" xr:uid="{EA934D34-60DE-41DA-99D1-AD0A85E91A59}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-rajduzna-49" xr:uid="{B10F2AE9-3776-4218-86B1-F92EBC2D887E}"/>
-    <hyperlink ref="A94" r:id="rId94" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-raisi-okipnoi-9" xr:uid="{A9874BFF-B859-4474-9C4F-2AA1B7471061}"/>
-    <hyperlink ref="A95" r:id="rId95" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-revuckogo-15" xr:uid="{1E37BD2F-C1F2-4921-B31C-511B9A6A8626}"/>
-    <hyperlink ref="A96" r:id="rId96" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-revuckogo-33" xr:uid="{633CC0DB-A1C4-4AA2-B026-9AD5C7D211CA}"/>
-    <hyperlink ref="A97" r:id="rId97" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-rosijska-33" xr:uid="{D5FBBB16-DEA5-45B3-BEE1-793D7F2E953B}"/>
-    <hyperlink ref="A98" r:id="rId98" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-rusanivska-naberezna-18" xr:uid="{7B73B5B3-153C-48B4-8C02-9C9C9A53F060}"/>
-    <hyperlink ref="A99" r:id="rId99" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-saburova-3" xr:uid="{51DF9CBB-B77D-4883-B122-BEEE816ACDF3}"/>
-    <hyperlink ref="A100" r:id="rId100" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-svitlickogo-23" xr:uid="{1DF4C8BE-05DD-4A63-BD3E-28F9F584BFC2}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-simirenka-17-a" xr:uid="{BABA23B6-D8F6-49C4-BA73-2C8D49622563}"/>
-    <hyperlink ref="A102" r:id="rId102" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-solom-anska-39" xr:uid="{676A4FF9-BB98-4D7B-91A2-D8A529D35BCB}"/>
-    <hyperlink ref="A103" r:id="rId103" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-sormovska-13" xr:uid="{DB5C6AFB-8AAD-4867-9CB8-2F954B506E59}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-sribnokilska-3-d" xr:uid="{4FAD8553-74AB-4863-995A-CBE28DD6BF68}"/>
-    <hyperlink ref="A105" r:id="rId105" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-sim-i-sosninih-17" xr:uid="{36B30666-4109-42C5-8278-CE50453B9610}"/>
-    <hyperlink ref="A106" r:id="rId106" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-tuluzi-3-b" xr:uid="{ADFB2478-2380-4D2A-8708-2D8A731D2991}"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-urlivska-22" xr:uid="{2179C89E-A00B-4957-9299-A710EFE6D009}"/>
-    <hyperlink ref="A108" r:id="rId108" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-usinskogo-27" xr:uid="{11127EFB-DCA0-465D-8208-AD551F3A6E5E}"/>
-    <hyperlink ref="A109" r:id="rId109" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-harkivske-sose-152-a" xr:uid="{7B029FB0-D23D-49A6-A50A-819F08840268}"/>
-    <hyperlink ref="A110" r:id="rId110" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-harkivske-sose-166" xr:uid="{3780A51D-F503-470B-8A21-546A78AB5EE5}"/>
-    <hyperlink ref="A111" r:id="rId111" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-centralna-13-d" xr:uid="{FCA99757-7B79-451E-B24E-C405987025AF}"/>
-    <hyperlink ref="A112" r:id="rId112" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-solom-alejhema-17" xr:uid="{27FFC945-E730-482C-890A-7D48A1FF92CB}"/>
-    <hyperlink ref="A113" r:id="rId113" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-solom-alejhema-4" xr:uid="{5A446674-9D40-4E06-8701-B55AEB46A5BD}"/>
-    <hyperlink ref="A114" r:id="rId114" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-serbakivskogo-danila-52" xr:uid="{FBEE95BC-4E98-4521-B788-85AA04ACE2CA}"/>
-    <hyperlink ref="A115" r:id="rId115" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-serbakivskogo-danila-53" xr:uid="{D6551564-5186-49B3-9CB7-E72F1260B118}"/>
-    <hyperlink ref="A116" r:id="rId116" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-serbakivskogo-danila-61" xr:uid="{BED0EB58-ACD8-42F2-A901-7C02EA978B64}"/>
-    <hyperlink ref="A117" r:id="rId117" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-suseva-10" xr:uid="{E6A94D39-C074-4741-9D62-B48491D8E66D}"/>
-    <hyperlink ref="A118" r:id="rId118" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akuba-kolasa-3-1" xr:uid="{62EEEE73-EF48-4648-A38E-3F3331AB140D}"/>
-    <hyperlink ref="A119" r:id="rId119" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-akuba-kolasa-27" xr:uid="{3AA3405D-48F0-41C3-8BFD-FDE630B39C3F}"/>
-    <hyperlink ref="A120" r:id="rId120" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/vul-aroslava-ivaskevica-5" xr:uid="{0DDC7140-F7A8-4CC5-A661-D59CF85DF43F}"/>
-    <hyperlink ref="A121" r:id="rId121" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-t-ticini-7" xr:uid="{584ADA56-5481-48E9-89F9-DF9DE9DDBC1F}"/>
-    <hyperlink ref="A122" r:id="rId122" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-t-akademika-korolova-3" xr:uid="{8C4346E1-DF6A-4725-BC04-F43C8E2ED9B4}"/>
-    <hyperlink ref="A123" r:id="rId123" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-v-maakovskogo-89b" xr:uid="{856C0C93-ED21-41FA-BEEB-6C2C9B202DC9}"/>
-    <hyperlink ref="A124" r:id="rId124" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-valeria-lobanovskogo-119-prim-1" xr:uid="{5A9C0056-BDA9-4BE8-8BBC-6FA7B62322C4}"/>
-    <hyperlink ref="A125" r:id="rId125" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-volodimira-maakovskogo-26" xr:uid="{24DCFFCD-4F6C-4F2C-8A53-576A266A4F5F}"/>
-    <hyperlink ref="A126" r:id="rId126" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-vidradnij-10" xr:uid="{20E4B6FB-550F-4F7C-A184-2E83EE979A74}"/>
-    <hyperlink ref="A127" r:id="rId127" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-vidradnij-18" xr:uid="{DFD2C371-1EAE-4333-A4C1-D51C3187A11E}"/>
-    <hyperlink ref="A128" r:id="rId128" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-vidradnij-28" xr:uid="{413589CA-1849-403A-B395-357CB415FC93}"/>
-    <hyperlink ref="A129" r:id="rId129" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-golosiivskij-128" xr:uid="{5BC33F21-B299-4258-88DE-627205CC83BE}"/>
-    <hyperlink ref="A130" r:id="rId130" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-lesa-kurbasa-2-13" xr:uid="{1FFF7FA4-9938-4D72-9742-BBDF417CFDEA}"/>
-    <hyperlink ref="A131" r:id="rId131" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-lisovij-28" xr:uid="{A7080866-FF01-4E30-A45C-931784CAE163}"/>
-    <hyperlink ref="A132" r:id="rId132" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-lisovij-4" xr:uid="{2B1F5F5E-2557-431B-9854-C937F08D7379}"/>
-    <hyperlink ref="A133" r:id="rId133" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-marsala-rokossovskogo-3-4" xr:uid="{EB24A645-C9C6-42C3-A485-0F6E05AB0E17}"/>
-    <hyperlink ref="A134" r:id="rId134" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-minskij-4" xr:uid="{C2C1D864-1FEC-4CAC-8E7A-81F3F04373D6}"/>
-    <hyperlink ref="A135" r:id="rId135" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-nauki-68" xr:uid="{F558E636-CFFB-45B1-8502-FAD3B018E5BB}"/>
-    <hyperlink ref="A136" r:id="rId136" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-nauki-9" xr:uid="{AB5E1435-288B-4A02-BEF2-F569021170CF}"/>
-    <hyperlink ref="A137" r:id="rId137" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-obolonskij-36" xr:uid="{AD8F6756-FC39-4163-8441-4EBDFAE9F346}"/>
-    <hyperlink ref="A138" r:id="rId138" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-obolonskij-52-a" xr:uid="{B3E6130D-C7DE-4204-8BE8-0BB7CEE94D39}"/>
-    <hyperlink ref="A139" r:id="rId139" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-peremogi-136" xr:uid="{A6C269BF-60CE-4456-BB4B-31CF87F064F8}"/>
-    <hyperlink ref="A140" r:id="rId140" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-peremogi-18" xr:uid="{2DD76A31-FBA2-49A3-995D-FCFF86B3A172}"/>
-    <hyperlink ref="A141" r:id="rId141" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-petra-grigorenka-5a" xr:uid="{F86B66B1-A0DC-4904-B2E5-BA182572BACC}"/>
-    <hyperlink ref="A142" r:id="rId142" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-pravdi-12-v" xr:uid="{7ADD4E67-BE33-4AD0-AC0C-BDCA2506ADC8}"/>
-    <hyperlink ref="A143" r:id="rId143" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-stepana-banderi-8" xr:uid="{709BB1BB-E4C5-46BE-932B-D59C0DC5EEB3}"/>
-    <hyperlink ref="A144" r:id="rId144" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-uria-gagarina-12" xr:uid="{BEF44027-37C2-4E31-A45A-DF6BF433A3D2}"/>
-    <hyperlink ref="A145" r:id="rId145" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/pr-uria-gagarina-3" xr:uid="{7BD89ADB-A9CA-4B63-817E-F33ACB765684}"/>
-    <hyperlink ref="A146" r:id="rId146" display="https://mojaakcija.com.ua/viddilennya/kiiv/atb/prov-kvitnevij-9" xr:uid="{CC2D21BF-ED34-4129-B5ED-EA52493C0928}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId147"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kyivbot/resources/food_stores/atb.xlsx
+++ b/kyivbot/resources/food_stores/atb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_sem\nlp_works\kyivbot\resources\food_stores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977C78C-28D0-4D38-A311-6E5F608006E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFADFEE-9099-4838-9971-5A6AAF88E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,13 +783,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
